--- a/template for OPT.xlsx
+++ b/template for OPT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\umwel\OneDrive\Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d163bb2e712d5e0e/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{40E00CFA-7048-40B8-8449-65AC1C74ADA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FF613DB2-8E56-4E50-A18B-B01FE021AAFA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41B557AC-66A4-4411-9CDC-3D73B8F9E40E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
   <si>
     <t>Please copy paste this orange block as many times as needed (for each data annotation reference one)</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>nitrogen</t>
-  </si>
-  <si>
-    <t>CHEBI</t>
   </si>
   <si>
     <t>sediment</t>
@@ -558,6 +555,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -572,14 +577,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -805,7 +802,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -838,128 +835,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
-        <v>24</v>
+      <c r="A1" s="42" t="s">
+        <v>23</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="38" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="38" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="38" t="s">
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="38" t="s">
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="38" t="s">
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="38" t="s">
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="38" t="s">
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="38" t="s">
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="40"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="44"/>
     </row>
     <row r="2" spans="1:36" s="21" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="41" t="s">
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="41" t="s">
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="41" t="s">
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="41" t="s">
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="41" t="s">
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="41" t="s">
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="41" t="s">
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="43"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="47"/>
     </row>
     <row r="3" spans="1:36" s="20" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="45"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="49"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="22" t="s">
         <v>6</v>
       </c>
@@ -1059,52 +1056,49 @@
     </row>
     <row r="4" spans="1:36" s="30" customFormat="1" ht="51.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="27"/>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>11</v>
+      <c r="H4" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="I4" s="28"/>
       <c r="J4" s="15"/>
       <c r="K4" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M4" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="14" t="s">
-        <v>22</v>
-      </c>
       <c r="O4" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="27"/>
       <c r="R4" s="15"/>
       <c r="S4" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T4" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U4" s="27"/>
       <c r="V4" s="15"/>
@@ -1169,7 +1163,7 @@
       <c r="E6" s="32"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="33"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="32"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -39087,11 +39081,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="E2:H2"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AG2:AJ2"/>
     <mergeCell ref="A1:D1"/>
@@ -39108,9 +39097,14 @@
     <mergeCell ref="Q1:T1"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" xr:uid="{A7DB09B9-CC49-4B9B-A064-9E0894B849C9}"/>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{A7DB09B9-CC49-4B9B-A064-9E0894B849C9}"/>
     <hyperlink ref="L4" r:id="rId2" xr:uid="{3F6E3F69-E960-4E2D-AC93-63E2AE022425}"/>
     <hyperlink ref="A4" r:id="rId3" xr:uid="{2781FFC2-3E84-4703-80B0-81D484AF1F4E}"/>
     <hyperlink ref="P4" r:id="rId4" xr:uid="{49A17F64-85C6-44E6-8EB8-3F09785A53F3}"/>
